--- a/策划文档/宠物列表.xlsx
+++ b/策划文档/宠物列表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="宠物列表" sheetId="1" r:id="rId1"/>
+    <sheet name="宠物模型" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>金 Metal</t>
   </si>
@@ -73,13 +74,34 @@
   </si>
   <si>
     <t>毒 Posion</t>
+  </si>
+  <si>
+    <t>宠物列表</t>
+  </si>
+  <si>
+    <t>喂养属性</t>
+  </si>
+  <si>
+    <t>战斗属性</t>
+  </si>
+  <si>
+    <t>体力值</t>
+  </si>
+  <si>
+    <t>魔力值</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>防御力</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +146,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -240,7 +269,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +317,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -643,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1127,4 +1159,60 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" s="18" customFormat="1">
+      <c r="A2" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="18" customFormat="1">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/策划文档/宠物列表.xlsx
+++ b/策划文档/宠物列表.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="宠物统计" sheetId="1" r:id="rId1"/>
+    <sheet name="数据模型" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
   <si>
     <t>金 Metal</t>
   </si>
@@ -476,17 +477,29 @@
   <si>
     <t xml:space="preserve">力量宝石 </t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>养育属性</t>
+  </si>
+  <si>
+    <t>饱食度</t>
+  </si>
+  <si>
+    <t>战斗属性</t>
+  </si>
+  <si>
+    <t>生命值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -494,7 +507,7 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -510,7 +523,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -519,7 +532,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -533,7 +546,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -547,24 +560,31 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -696,7 +716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,6 +770,39 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,64 +827,34 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1159,43 +1182,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1217,7 +1240,7 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="22"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1260,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1282,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1281,7 +1304,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="21"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1324,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1346,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1344,8 +1367,8 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="28.5">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" s="31"/>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1388,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="20"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1410,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1409,7 +1432,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="19"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1452,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="19"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1474,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1473,7 +1496,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="26"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1516,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="26"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1515,7 +1538,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1526,10 +1549,10 @@
       <c r="E17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="21" t="s">
         <v>82</v>
       </c>
       <c r="H17" s="2"/>
@@ -1537,19 +1560,19 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="22"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="22" t="s">
         <v>85</v>
       </c>
       <c r="H18" s="2"/>
@@ -1557,7 +1580,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
@@ -1566,20 +1589,20 @@
       <c r="E19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="23" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1587,13 +1610,13 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="25" t="s">
         <v>92</v>
       </c>
       <c r="H20" s="2"/>
@@ -1601,19 +1624,19 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="25"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="26" t="s">
         <v>95</v>
       </c>
       <c r="H21" s="2"/>
@@ -1621,7 +1644,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="25"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
@@ -1641,7 +1664,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1649,13 +1672,13 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="27" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -1665,19 +1688,19 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="24"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="28" t="s">
         <v>75</v>
       </c>
       <c r="H24" s="2"/>
@@ -1685,29 +1708,29 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="24"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="29" t="s">
         <v>79</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1715,13 +1738,13 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="25" t="s">
         <v>102</v>
       </c>
       <c r="H26" s="2"/>
@@ -1729,19 +1752,19 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="19"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="26" t="s">
         <v>105</v>
       </c>
       <c r="H27" s="2"/>
@@ -1749,7 +1772,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="19"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +1794,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1779,13 +1802,13 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="21" t="s">
         <v>112</v>
       </c>
       <c r="H29" s="2"/>
@@ -1793,19 +1816,19 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="23"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="22" t="s">
         <v>115</v>
       </c>
       <c r="H30" s="2"/>
@@ -1813,7 +1836,7 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="23"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="7" t="s">
         <v>10</v>
       </c>
@@ -1822,13 +1845,13 @@
       <c r="E31" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="23" t="s">
         <v>119</v>
       </c>
       <c r="I31" s="2"/>
@@ -1849,7 +1872,47 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="38" customFormat="1">
+      <c r="A1" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="38" customFormat="1">
+      <c r="A11" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/策划文档/宠物列表.xlsx
+++ b/策划文档/宠物列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
   <si>
     <t>金 Metal</t>
   </si>
@@ -489,17 +489,37 @@
   </si>
   <si>
     <t>生命值</t>
+  </si>
+  <si>
+    <t>亲密度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -507,7 +527,7 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -523,7 +543,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -532,7 +552,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -546,7 +566,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,21 +580,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -803,58 +823,58 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1182,14 +1202,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="19"/>
@@ -1218,7 +1238,7 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1240,7 +1260,7 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="33"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1280,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="33"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +1302,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1304,7 +1324,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1344,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1366,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1367,8 +1387,8 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="30">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:10" ht="28.5">
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +1408,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1410,7 +1430,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1432,7 +1452,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="30"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1472,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="30"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1474,7 +1494,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1496,7 +1516,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1536,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="37"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1558,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1560,7 +1580,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1600,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +1622,7 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1624,7 +1644,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
@@ -1644,7 +1664,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1684,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1688,7 +1708,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="35"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1708,7 +1728,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1750,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1752,7 +1772,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="30"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1792,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="30"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +1814,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1816,7 +1836,7 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
@@ -1836,7 +1856,7 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="34"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="7" t="s">
         <v>10</v>
       </c>
@@ -1882,37 +1902,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="38" customFormat="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:5" s="30" customFormat="1">
+      <c r="A1" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" s="38" customFormat="1">
-      <c r="A11" s="39" t="s">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="30" customFormat="1">
+      <c r="A11" s="31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="32" t="s">
         <v>123</v>
       </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/策划文档/宠物列表.xlsx
+++ b/策划文档/宠物列表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
   <si>
     <t>金 Metal</t>
   </si>
@@ -508,6 +508,10 @@
   </si>
   <si>
     <t>天赋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1903,20 +1907,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="30" customFormat="1">
+    <row r="1" spans="1:6" s="30" customFormat="1">
       <c r="A1" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="32" t="s">
         <v>121</v>
       </c>
@@ -1924,12 +1928,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="30" customFormat="1">
+    <row r="11" spans="1:6" s="30" customFormat="1">
       <c r="A11" s="31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="32" t="s">
         <v>123</v>
       </c>
@@ -1944,6 +1948,9 @@
       </c>
       <c r="E12" t="s">
         <v>128</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
